--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/DistrictsSetDiffReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/DistrictsSetDiffReport.xlsx
@@ -12,6 +12,11 @@
     <sheet name="Новые районы" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Удаленные районы" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" name="DistrictAdded" vbProcedure="false">'Новые районы'!$A$3:$N$4</definedName>
+    <definedName function="false" hidden="false" name="DistrictDiffs" vbProcedure="false">'Измененные районы'!$A$3:$AA$4</definedName>
+    <definedName function="false" hidden="false" name="DistrictRemoved" vbProcedure="false">'Удаленные районы'!$A$3:$N$4</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -117,7 +122,7 @@
     <t xml:space="preserve">{{item.Name}}</t>
   </si>
   <si>
-    <t xml:space="preserve">{{item.TarifZoneName}}</t>
+    <t xml:space="preserve">{{item.TariffZoneNameOld}}</t>
   </si>
   <si>
     <t xml:space="preserve">{{item.TariffZoneNameNew}}</t>
@@ -189,7 +194,7 @@
     <t xml:space="preserve">{{item.DeliveryRulesSpecialOld}}</t>
   </si>
   <si>
-    <t xml:space="preserve">{{DeliveryRulesSpecialMNew}}</t>
+    <t xml:space="preserve">{{item.DeliveryRulesSpecialNew}}</t>
   </si>
   <si>
     <t xml:space="preserve">Новые районы</t>
@@ -416,64 +421,64 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -667,241 +672,241 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="15.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="15.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="23.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="24.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="20.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="23.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="24.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="5"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="166.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+    <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>36</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>39</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>41</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AA3" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
     </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -935,119 +940,119 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="7" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
       <c r="N1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="12" t="s">
         <v>67</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+    <row r="3" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N3" s="15" t="s">
@@ -1080,107 +1085,107 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="1" width="14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="N1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="12" t="s">
         <v>67</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+    <row r="3" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>79</v>
       </c>
       <c r="N3" s="15" t="s">

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/DistrictsSetDiffReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/DistrictsSetDiffReport.xlsx
@@ -128,10 +128,10 @@
     <t xml:space="preserve">{{item.TariffZoneNameNew}}</t>
   </si>
   <si>
-    <t xml:space="preserve">{{item.DelikveryRulesGeneralOld}|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{item.DelikveryRulesGeneralNew}|</t>
+    <t xml:space="preserve">{{item.MinimalBottlesCountOld}|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{item.MinimalBottlesCountNew}|</t>
   </si>
   <si>
     <t xml:space="preserve">{{item.DelikveryRulesGeneralOld}}</t>
@@ -673,7 +673,7 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/DistrictsSetDiffReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/DistrictsSetDiffReport.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="DistrictAdded" vbProcedure="false">'Новые районы'!$A$3:$N$4</definedName>
-    <definedName function="false" hidden="false" name="DistrictDiffs" vbProcedure="false">'Измененные районы'!$A$3:$AA$4</definedName>
+    <definedName function="false" hidden="false" name="DistrictDiffs" vbProcedure="false">'Измененные районы'!$A$3:$AC$4</definedName>
     <definedName function="false" hidden="false" name="DistrictRemoved" vbProcedure="false">'Удаленные районы'!$A$3:$N$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
   <si>
     <t xml:space="preserve">Измененные районы</t>
   </si>
@@ -47,6 +47,12 @@
     <t xml:space="preserve">Тарифная зона new</t>
   </si>
   <si>
+    <t xml:space="preserve">Район города Old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Район города New</t>
+  </si>
+  <si>
     <t xml:space="preserve">Мин бутылей old</t>
   </si>
   <si>
@@ -126,6 +132,12 @@
   </si>
   <si>
     <t xml:space="preserve">{{item.TariffZoneNameNew}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{item.GeoGroupOld}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{item.GeoGroupNew}}</t>
   </si>
   <si>
     <t xml:space="preserve">{{item.MinimalBottlesCountOld}|</t>
@@ -670,10 +682,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA1048576"/>
+  <dimension ref="A1:AC1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -682,19 +694,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="20.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="17.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="16.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="20.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="15.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="15.38"/>
@@ -703,8 +713,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="15.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="23.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="24.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="23.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="24.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,11 +730,11 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -736,8 +748,10 @@
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="6"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
@@ -821,91 +835,103 @@
       <c r="AA2" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="AB2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="K3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="M3" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10"/>
     </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -920,7 +946,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="I1:X1"/>
+    <mergeCell ref="K1:Z1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -953,7 +979,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -979,84 +1005,84 @@
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1098,7 +1124,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1112,84 +1138,84 @@
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/DistrictsSetDiffReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Logistic/DistrictsSetDiffReport.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="DistrictAdded" vbProcedure="false">'Новые районы'!$A$3:$N$4</definedName>
-    <definedName function="false" hidden="false" name="DistrictDiffs" vbProcedure="false">'Измененные районы'!$A$3:$AC$4</definedName>
+    <definedName function="false" hidden="false" name="DistrictDiffs" vbProcedure="false">'Измененные районы'!$A$3:$AA$4</definedName>
     <definedName function="false" hidden="false" name="DistrictRemoved" vbProcedure="false">'Удаленные районы'!$A$3:$N$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t xml:space="preserve">Измененные районы</t>
   </si>
@@ -47,12 +47,6 @@
     <t xml:space="preserve">Тарифная зона new</t>
   </si>
   <si>
-    <t xml:space="preserve">Район города Old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Район города New</t>
-  </si>
-  <si>
     <t xml:space="preserve">Мин бутылей old</t>
   </si>
   <si>
@@ -132,12 +126,6 @@
   </si>
   <si>
     <t xml:space="preserve">{{item.TariffZoneNameNew}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{item.GeoGroupOld}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{item.GeoGroupNew}}</t>
   </si>
   <si>
     <t xml:space="preserve">{{item.MinimalBottlesCountOld}|</t>
@@ -682,10 +670,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC1048576"/>
+  <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -694,17 +682,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="17.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="26.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="16.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="20.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="20.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="15.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="15.38"/>
@@ -713,10 +703,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="15.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="15.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="23.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="24.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="23.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="24.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -730,11 +718,11 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -748,10 +736,8 @@
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="6"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
@@ -835,103 +821,91 @@
       <c r="AA2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="J3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="W3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="Z3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>59</v>
-      </c>
     </row>
-    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10"/>
     </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -946,7 +920,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="K1:Z1"/>
+    <mergeCell ref="I1:X1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -979,7 +953,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1005,84 +979,84 @@
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="H2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="I2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="J2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="N2" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="N3" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1124,7 +1098,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1138,84 +1112,84 @@
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="H2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="I2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="J2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="N2" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="N3" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
